--- a/medicine/Mort/Lorsque_le_cœur_dérange/Lorsque_le_cœur_dérange.xlsx
+++ b/medicine/Mort/Lorsque_le_cœur_dérange/Lorsque_le_cœur_dérange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque le cœur dérange (anglais : Disturbed Heart) est un film canadien indépendant écrit et réalisé par Philippe Cormier sorti en 2022 sur la plateforme Apple TV, et en 2023 sur Club Illico et Télé-Québec. Il s'agit du premier long-métrage du réalisateur, âgé de 20 ans lors du tournage, avant Le Purgatoire des intimes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bénédicte, une femme de trente ans, est tuée dans un braquage et sombre dans une psychose inquiétante après avoir été réanimée à l'hôpital[1]. Son expérience de vie après la mort ira chambouler son quotidien déjà parsemé de drames familiaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bénédicte, une femme de trente ans, est tuée dans un braquage et sombre dans une psychose inquiétante après avoir été réanimée à l'hôpital. Son expérience de vie après la mort ira chambouler son quotidien déjà parsemé de drames familiaux.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rebecca Gibian : Bénédicte Tardif
 Emmanuel Auger : Jean-François Villemaire
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Lorsque le cœur dérange
 Autre titre : Disturbed Heart (en anglais)
@@ -592,7 +610,7 @@
 Musique originale : Lauren Bélec
 Maquillage : Valérie St-Michel
 Pays d'origine :  Canada
-Budget : 150 000 $ CA[3]
+Budget : 150 000 $ CA
 Format : couleurs, 2:35
 Genre : drame psychologique
 Durée : 77 minutes</t>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,10 +641,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, Philippe Cormier annonce travailler sur son premier long-métrage indépendant[4], Lorsque le cœur dérange. En 2020, en raison de la pandémie de Covid-19, le tournage est reporté à deux reprises. C'est finalement en octobre 2020 que le tournage prend place dans les Laurentides, au Québec. Le budget du film s'élève à 150 000 dollars canadiens[3]. « Sortir un film qui traite de maladie mentale prend tout son sens en ce temps de pandémie », confie le réalisateur Philippe Cormier[5].
-La première médiatique a lieu au cinéma Impérial de Montréal, Québec, en avril 2021, animée par la créatrice de contenu Olivia Leclerc[6]. « Avec la pandémie, comme une distribution en salle n'avait pas été possible, je me suis dit que j’allais essayer de faire mon entrée avec ce film au travers des festivals », explique Cormier à l'Agence QMI[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, Philippe Cormier annonce travailler sur son premier long-métrage indépendant, Lorsque le cœur dérange. En 2020, en raison de la pandémie de Covid-19, le tournage est reporté à deux reprises. C'est finalement en octobre 2020 que le tournage prend place dans les Laurentides, au Québec. Le budget du film s'élève à 150 000 dollars canadiens. « Sortir un film qui traite de maladie mentale prend tout son sens en ce temps de pandémie », confie le réalisateur Philippe Cormier.
+La première médiatique a lieu au cinéma Impérial de Montréal, Québec, en avril 2021, animée par la créatrice de contenu Olivia Leclerc. « Avec la pandémie, comme une distribution en salle n'avait pas été possible, je me suis dit que j’allais essayer de faire mon entrée avec ce film au travers des festivals », explique Cormier à l'Agence QMI.
 En décembre 2022, le film est diffusé sur Apple TV partout dans le monde. En mars 2023, le film est diffusé sur Club Illico et Télé-Québec.
 </t>
         </is>
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lorsque_le_c%C5%93ur_d%C3%A9range</t>
+          <t>Lorsque_le_cœur_dérange</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,9 +676,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est nommé en 2021 à cinq reprises[7] aux New York Oniros Film Awards, aux États-Unis, dans les catégories de meilleur film et de meilleur scénario[3],[8],[9]. Une journaliste qui était sur place compare le film à Pieces of a Woman pour la qualité de l'interprétation de Rebecca Gibian[10]. Cette même année, le film reçoit le prix dans les catégories du meilleur film, du meilleur drame et du meilleur premier réalisateur au Festival de Cannes[11]. À Reims, il est récompensé dans les catégories meilleur drame, meilleure actrice de soutien à Fanny Rainville, meilleur maquillage pour Valérie St-Michel, et une mention honorable pour l'actrice Rebecca Gibian au Red Movie Awards[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est nommé en 2021 à cinq reprises aux New York Oniros Film Awards, aux États-Unis, dans les catégories de meilleur film et de meilleur scénario. Une journaliste qui était sur place compare le film à Pieces of a Woman pour la qualité de l'interprétation de Rebecca Gibian. Cette même année, le film reçoit le prix dans les catégories du meilleur film, du meilleur drame et du meilleur premier réalisateur au Festival de Cannes. À Reims, il est récompensé dans les catégories meilleur drame, meilleure actrice de soutien à Fanny Rainville, meilleur maquillage pour Valérie St-Michel, et une mention honorable pour l'actrice Rebecca Gibian au Red Movie Awards.
 </t>
         </is>
       </c>
